--- a/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles (Autoguardado).xlsx
+++ b/PABMI/0 PABI/ROLES/Casos de Prueba Roles Inmuebles (Autoguardado).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historias Usuario" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Roles modificaciones " sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -687,9 +688,6 @@
     <t>Jefe de Levantamiento</t>
   </si>
   <si>
-    <t>Erika.martinez</t>
-  </si>
-  <si>
     <t xml:space="preserve">analista de Información </t>
   </si>
   <si>
@@ -1063,6 +1061,9 @@
   </si>
   <si>
     <t>aurora.ramos</t>
+  </si>
+  <si>
+    <t>samantha.martinez</t>
   </si>
 </sst>
 </file>
@@ -4342,7 +4343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -4420,7 +4421,7 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -4446,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4458,10 +4459,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4470,10 +4471,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,7 +4491,7 @@
     </row>
     <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4516,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4528,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4540,16 +4541,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -4567,7 +4568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>3</v>
       </c>
@@ -4575,10 +4576,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4587,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4599,16 +4600,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -4626,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>3</v>
       </c>
@@ -4634,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4646,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4658,16 +4659,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -4693,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4705,10 +4706,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4717,16 +4718,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -4752,10 +4753,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
@@ -4764,10 +4765,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -4776,16 +4777,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -4811,10 +4812,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4823,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4835,10 +4836,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4879,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,7 +4894,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -4930,7 +4931,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -4950,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -4970,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -4990,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5010,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5030,7 +5031,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5050,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5070,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5090,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5101,16 +5102,16 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5130,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -5154,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5170,7 +5171,7 @@
   <sheetData>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -5190,25 +5191,25 @@
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5216,22 +5217,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5239,22 +5240,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5262,22 +5263,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5285,22 +5286,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5308,22 +5309,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5331,22 +5332,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5354,20 +5355,20 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5375,20 +5376,20 @@
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5418,7 +5419,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,7 +5434,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -5453,25 +5454,25 @@
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
@@ -5492,7 +5493,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,10 +5501,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>43</v>
@@ -5513,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5521,17 +5522,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -5539,10 +5540,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -5552,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,20 +5561,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5594,7 +5595,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5609,7 +5610,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -5629,25 +5630,25 @@
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5655,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
@@ -5668,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>43</v>
@@ -5689,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,10 +5698,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>37</v>
@@ -5710,7 +5711,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5718,10 +5719,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -5731,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,10 +5740,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>37</v>
@@ -5752,7 +5753,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>39</v>
@@ -5773,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
@@ -5781,10 +5782,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>37</v>
@@ -5794,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5802,20 +5803,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5835,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,7 +5853,7 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -5872,25 +5873,25 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>39</v>
@@ -5911,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,20 +5920,20 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5953,7 +5954,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,10 +5962,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>37</v>
@@ -5974,7 +5975,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5982,7 +5983,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>39</v>
@@ -5995,7 +5996,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6003,7 +6004,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>39</v>
@@ -6016,7 +6017,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,10 +6025,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>37</v>
@@ -6037,7 +6038,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,10 +6046,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
@@ -6058,7 +6059,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6066,10 +6067,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>37</v>
@@ -6079,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -6087,20 +6088,20 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6120,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6136,7 +6137,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -6156,25 +6157,25 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6182,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
@@ -6195,7 +6196,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6216,7 +6217,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>37</v>
@@ -6237,7 +6238,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6245,10 +6246,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -6262,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>39</v>
@@ -6275,7 +6276,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6283,10 +6284,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>37</v>
@@ -6296,7 +6297,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,10 +6305,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>37</v>
@@ -6317,7 +6318,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,10 +6326,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
@@ -6338,7 +6339,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6346,7 +6347,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>39</v>
@@ -6359,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,10 +6368,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
@@ -6380,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -6388,10 +6389,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>37</v>
@@ -6401,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6409,20 +6410,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6442,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6458,7 +6459,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -6478,25 +6479,25 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6504,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
@@ -6517,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
@@ -6544,10 +6545,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>37</v>
@@ -6563,10 +6564,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -6582,13 +6583,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="10" t="s">
@@ -6632,7 +6633,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,7 +6648,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -6667,25 +6668,25 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6693,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
@@ -6712,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>39</v>
@@ -6731,13 +6732,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="10" t="s">
@@ -6761,7 +6762,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="24"/>
       <c r="G9" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="10"/>
     </row>
